--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -29,7 +29,7 @@
   </si>
   <si>
     <t>
-                        O Bundle Grand Theft Auto V: Edição Premium &amp; Pacote Tubarão-Baleia inclui o Modo História completo do Grand Theft Auto V, acesso gratuito ao mundo em constante evolução do Grand Theft Auto Online e todo o conteúdo e melhorias de jogo já lançados, incluindo o Golpe de Cayo Perico, o Cassino e Resort Diamond, o Golpe do Cassino Diamond, Tráfico de Armas e muito mais. Você também recebe o Kit Inicial de Esquema Criminal, a maneira mais rápida de começar seu império do crime no Grand Theft Auto Online, e um Pacote de Dinheiro Tubarão-Baleia no valor de GTA$3.500.000 para gastar no GTA Online.
+O Bundle Grand Theft Auto V: Edição Premium &amp; Pacote Tubarão-Baleia inclui o Modo História completo do Grand Theft Auto V, acesso gratuito ao mundo em constante evolução do Grand Theft Auto Online e todo o conteúdo e melhorias de jogo já lançados, incluindo o Golpe de Cayo Perico, o Cassino e Resort Diamond, o Golpe do Cassino Diamond, Tráfico de Armas e muito mais. Você também recebe o Kit Inicial de Esquema Criminal, a maneira mais rápida de começar seu império do crime no Grand Theft Auto Online, e um Pacote de Dinheiro Tubarão-Baleia no valor de GTA$3.500.000 para gastar no GTA Online.
 GRAND THEFT AUTO V
 Quando um malandro de rua, um ladrão de bancos aposentado e um psicopata aterrorizante se veem encrencados, eles precisam realizar uma série de golpes ousados para sobreviver em uma cidade onde não podem confiar em ninguém, nem mesmo um no outro.
 GRAND THEFT AUTO ONLINE
@@ -42,28 +42,28 @@
 Saia rasgando pelas ruas com uma série de 10 veículos de alto desempenho, incluindo um supercarro, motocicletas, o Dune de Combate armado, um helicóptero, um carro de rally e mais. Você também irá adquirir propriedades, incluindo uma garagem para 10 carros para guardar a sua crescente frota.
 ARMAS, ROUPAS E TATUAGENS
 Você também terá acesso ao Lança-granada Compacto, Rifle de Elite e o Fuzil Compacto, além de trajes de Corridas Acrobáticas, tatuagens de motoqueiro e mais.
-                    </t>
+</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
   <si>
     <t>249.95</t>
-  </si>
-  <si>
-    <t>2017                </t>
   </si>
   <si>
     <t>Far Cry® 5</t>
   </si>
   <si>
     <t>
-                        Far Cry chega aos Estados Unidos da América no jogo mais recente da franquia premiada.
+Far Cry chega aos Estados Unidos da América no jogo mais recente da franquia premiada.
 Hope County, Montana, foi tomada por um culto apocalíptico fanático – O Projeto em Eden’s Gate. Após sua chegada, você deve acender os fogos da resistência para liberar a comunidade. Atice as chamas da resistência e lute para livrar Hope County das mãos de um culto mortal. Cuidado com a ira de Joseph Seed e os seguidores do seu culto enquanto você ajuda a resistência no interior da América. Explore Hope County e descubra o interior de Montana, sua vida selvagem e seus habitantes nesse mundo aberto emocionante. Jogue do seu jeito. Construa seu personagem, faça seus próprios aliados e veja como o mundo muda enquanto você progride.
-                    </t>
+</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t>199.00</t>
-  </si>
-  <si>
-    <t>2018                </t>
   </si>
 </sst>
 </file>
